--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1357.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1357.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17065594772396</v>
+        <v>1.206503629684448</v>
       </c>
       <c r="B1">
-        <v>2.600654188388403</v>
+        <v>2.575319766998291</v>
       </c>
       <c r="C1">
-        <v>4.001434545878435</v>
+        <v>9.136944770812988</v>
       </c>
       <c r="D1">
-        <v>2.737563449403267</v>
+        <v>2.033324718475342</v>
       </c>
       <c r="E1">
-        <v>1.15511791927571</v>
+        <v>1.166728258132935</v>
       </c>
     </row>
   </sheetData>
